--- a/Application/ChefReports Route - 2 ( Kiddies ).xlsx
+++ b/Application/ChefReports Route - 2 ( Kiddies ).xlsx
@@ -9,15 +9,12 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
-    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
-    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
   <si>
     <t>Doorstep Chef - Chef Report 26 Sep 2016</t>
   </si>
@@ -86,15 +83,6 @@
   </si>
   <si>
     <t>Meal Type : Kiddies  Route: 2</t>
-  </si>
-  <si>
-    <t>Meal Type : Kiddies  Route: 3</t>
-  </si>
-  <si>
-    <t>Meal Type : Kiddies  Route: 4</t>
-  </si>
-  <si>
-    <t>Meal Type : Kiddies  Route: 5</t>
   </si>
 </sst>
 </file>
@@ -102,590 +90,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="267">
+  <fonts count="134">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1373,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1560,217 +971,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="109" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -1809,11 +1009,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1981,11 +1181,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2139,11 +1339,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2278,494 +1478,6 @@
         <v>1</v>
       </c>
       <c r="D9" t="s" s="121">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="122">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="123">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="124">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="125">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="126">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="127">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="128">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="129">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="130">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="131">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="133">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="134">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="135">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="136">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="137">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="138">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="139">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="141">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="142">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="145">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="146">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="149">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="150">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="153">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="154">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="157">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="158">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="159">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s" s="160">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="161">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="162">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="163">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="164">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="165">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="166">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="168">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="169">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="170">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="171">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="172">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="173">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="174">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="176">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="177">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="178">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="179">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="180">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="181">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="182">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="184">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="185">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="186">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="188">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="189">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="190">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="192">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="193">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="196">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="197">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s" s="198">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="200">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="201">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="203">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="204">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="207">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="208">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="209">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="211">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="212">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="213">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="215">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="216">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="217">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="219">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="220">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="221">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="223">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="224">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="225">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="227">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="228">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="231">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="232">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="233">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="235">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="236">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="237">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="239">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s" s="240">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="241">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="242">
         <v>1</v>
       </c>
     </row>
